--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhishekdas/Desktop/abhishek/google-cloud/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA8FAD4-2D3B-E741-8BFD-143A9F9616FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA9EFF1-CF52-114E-A198-D62F1F67CE4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5A94D530-864E-FD4B-B887-8670102A2B2A}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" xr2:uid="{5A94D530-864E-FD4B-B887-8670102A2B2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -834,12 +834,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -857,6 +851,12 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1174,10 +1174,10 @@
   <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J36" sqref="J36"/>
+      <selection pane="bottomRight" activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1233,7 +1233,7 @@
       <c r="M1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="22" t="s">
         <v>145</v>
       </c>
       <c r="O1" s="19"/>
@@ -1273,10 +1273,10 @@
       <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="23" t="s">
         <v>13</v>
       </c>
       <c r="O2" s="19"/>
@@ -1298,8 +1298,8 @@
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="25"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="23"/>
       <c r="O3" s="19"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1317,8 +1317,8 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="25"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="23"/>
       <c r="O4" s="19"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1336,8 +1336,8 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="25"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="23"/>
       <c r="O5" s="19"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1355,8 +1355,8 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="25"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="23"/>
       <c r="O6" s="19"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1392,8 +1392,8 @@
       <c r="L7" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="M7" s="33"/>
-      <c r="N7" s="26" t="s">
+      <c r="M7" s="31"/>
+      <c r="N7" s="24" t="s">
         <v>101</v>
       </c>
       <c r="O7" s="19"/>
@@ -1415,8 +1415,8 @@
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="26"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="24"/>
       <c r="O8" s="19"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1434,8 +1434,8 @@
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="26"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="24"/>
       <c r="O9" s="19"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1473,8 +1473,8 @@
       <c r="L10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="34"/>
-      <c r="N10" s="27" t="s">
+      <c r="M10" s="32"/>
+      <c r="N10" s="25" t="s">
         <v>37</v>
       </c>
       <c r="O10" s="19"/>
@@ -1512,8 +1512,8 @@
       <c r="L11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M11" s="34"/>
-      <c r="N11" s="27" t="s">
+      <c r="M11" s="32"/>
+      <c r="N11" s="25" t="s">
         <v>38</v>
       </c>
       <c r="O11" s="19"/>
@@ -1547,8 +1547,8 @@
       <c r="L12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="34"/>
-      <c r="N12" s="27" t="s">
+      <c r="M12" s="32"/>
+      <c r="N12" s="25" t="s">
         <v>39</v>
       </c>
       <c r="O12" s="19"/>
@@ -1572,8 +1572,8 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="27"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="25"/>
       <c r="O13" s="19"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1593,8 +1593,8 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="27"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="25"/>
       <c r="O14" s="19"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1610,8 +1610,8 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="27"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="25"/>
       <c r="O15" s="19"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1627,8 +1627,8 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="27"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="25"/>
       <c r="O16" s="19"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1644,8 +1644,8 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="27"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="25"/>
       <c r="O17" s="19"/>
     </row>
     <row r="18" spans="1:15" ht="40" x14ac:dyDescent="0.25">
@@ -1681,8 +1681,8 @@
       <c r="L18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="35"/>
-      <c r="N18" s="28" t="s">
+      <c r="M18" s="33"/>
+      <c r="N18" s="26" t="s">
         <v>7</v>
       </c>
       <c r="O18" s="19"/>
@@ -1708,8 +1708,8 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="28"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="26"/>
       <c r="O19" s="19"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1731,8 +1731,8 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="28"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="26"/>
       <c r="O20" s="19"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1754,8 +1754,8 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="28"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="26"/>
       <c r="O21" s="19"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1775,8 +1775,8 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="28"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="26"/>
       <c r="O22" s="19"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -1794,8 +1794,8 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="28"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="26"/>
       <c r="O23" s="19"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1813,8 +1813,8 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="28"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="26"/>
       <c r="O24" s="19"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1832,8 +1832,8 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="28"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="26"/>
       <c r="O25" s="19"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1851,8 +1851,8 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="28"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="26"/>
       <c r="O26" s="19"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -1870,8 +1870,8 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="28"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="26"/>
       <c r="O27" s="19"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -1887,8 +1887,8 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="28"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="26"/>
       <c r="O28" s="19"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -1904,8 +1904,8 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="28"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="26"/>
       <c r="O29" s="19"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -1921,8 +1921,8 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="28"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="26"/>
       <c r="O30" s="19"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -1960,10 +1960,10 @@
       <c r="L31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M31" s="36" t="s">
+      <c r="M31" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="N31" s="29" t="s">
+      <c r="N31" s="27" t="s">
         <v>5</v>
       </c>
       <c r="O31" s="19"/>
@@ -1993,10 +1993,10 @@
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
-      <c r="M32" s="36" t="s">
+      <c r="M32" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="N32" s="29"/>
+      <c r="N32" s="27"/>
       <c r="O32" s="19"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2024,8 +2024,8 @@
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="29"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="27"/>
       <c r="O33" s="19"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2053,8 +2053,8 @@
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="29"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="27"/>
       <c r="O34" s="19"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2080,8 +2080,8 @@
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="29"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="27"/>
       <c r="O35" s="19"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2105,8 +2105,8 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="29"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="27"/>
       <c r="O36" s="19"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2128,8 +2128,8 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="29"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="27"/>
       <c r="O37" s="19"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2151,8 +2151,8 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="29"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="27"/>
       <c r="O38" s="19"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -2168,8 +2168,8 @@
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="29"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="27"/>
       <c r="O39" s="19"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2185,8 +2185,8 @@
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="29"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="27"/>
       <c r="O40" s="19"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -2202,8 +2202,8 @@
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="29"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="27"/>
       <c r="O41" s="19"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -2225,8 +2225,8 @@
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="30"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="28"/>
       <c r="O42" s="19"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -2246,8 +2246,8 @@
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="30"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="28"/>
       <c r="O43" s="19"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -2260,10 +2260,10 @@
       <c r="C44" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="E44" s="21"/>
+      <c r="E44" s="38"/>
       <c r="F44" s="15" t="s">
         <v>111</v>
       </c>
@@ -2275,8 +2275,8 @@
       <c r="J44" s="15"/>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="31"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="29"/>
       <c r="O44" s="19"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -2287,10 +2287,10 @@
       <c r="C45" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="E45" s="21"/>
+      <c r="E45" s="38"/>
       <c r="F45" s="15" t="s">
         <v>112</v>
       </c>
@@ -2302,8 +2302,8 @@
       <c r="J45" s="15"/>
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="31"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="29"/>
       <c r="O45" s="19"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -2314,10 +2314,10 @@
       <c r="C46" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="E46" s="21"/>
+      <c r="E46" s="38"/>
       <c r="F46" s="15" t="s">
         <v>113</v>
       </c>
@@ -2329,8 +2329,8 @@
       <c r="J46" s="15"/>
       <c r="K46" s="15"/>
       <c r="L46" s="15"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="31"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="29"/>
       <c r="O46" s="19"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -2341,10 +2341,10 @@
       <c r="C47" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="E47" s="21"/>
+      <c r="E47" s="38"/>
       <c r="F47" s="15"/>
       <c r="G47" s="19"/>
       <c r="H47" s="15" t="s">
@@ -2354,8 +2354,8 @@
       <c r="J47" s="15"/>
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="31"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="29"/>
       <c r="O47" s="19"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -2366,10 +2366,10 @@
       <c r="C48" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="E48" s="21"/>
+      <c r="E48" s="38"/>
       <c r="F48" s="15"/>
       <c r="G48" s="19"/>
       <c r="H48" s="15" t="s">
@@ -2379,8 +2379,8 @@
       <c r="J48" s="15"/>
       <c r="K48" s="15"/>
       <c r="L48" s="15"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="31"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="29"/>
       <c r="O48" s="19"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -2391,10 +2391,10 @@
       <c r="C49" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="E49" s="21"/>
+      <c r="E49" s="38"/>
       <c r="F49" s="15"/>
       <c r="G49" s="19"/>
       <c r="H49" s="15" t="s">
@@ -2404,8 +2404,8 @@
       <c r="J49" s="15"/>
       <c r="K49" s="15"/>
       <c r="L49" s="15"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="31"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="29"/>
       <c r="O49" s="19"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -2414,10 +2414,10 @@
         <v>61</v>
       </c>
       <c r="C50" s="15"/>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E50" s="23"/>
+      <c r="E50" s="21"/>
       <c r="F50" s="15"/>
       <c r="G50" s="19"/>
       <c r="H50" s="15" t="s">
@@ -2427,8 +2427,8 @@
       <c r="J50" s="15"/>
       <c r="K50" s="15"/>
       <c r="L50" s="15"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="31"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="29"/>
       <c r="O50" s="19"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -2437,10 +2437,10 @@
         <v>62</v>
       </c>
       <c r="C51" s="15"/>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E51" s="23"/>
+      <c r="E51" s="21"/>
       <c r="F51" s="15"/>
       <c r="G51" s="19"/>
       <c r="H51" s="15" t="s">
@@ -2450,8 +2450,8 @@
       <c r="J51" s="15"/>
       <c r="K51" s="15"/>
       <c r="L51" s="15"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="31"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="29"/>
       <c r="O51" s="19"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -2460,8 +2460,8 @@
         <v>63</v>
       </c>
       <c r="C52" s="15"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="21"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="38"/>
       <c r="F52" s="15"/>
       <c r="G52" s="19"/>
       <c r="H52" s="15" t="s">
@@ -2471,8 +2471,8 @@
       <c r="J52" s="15"/>
       <c r="K52" s="15"/>
       <c r="L52" s="15"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="31"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="29"/>
       <c r="O52" s="19"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -2481,8 +2481,8 @@
         <v>64</v>
       </c>
       <c r="C53" s="15"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="21"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="38"/>
       <c r="F53" s="15"/>
       <c r="G53" s="19"/>
       <c r="H53" s="15"/>
@@ -2490,8 +2490,8 @@
       <c r="J53" s="15"/>
       <c r="K53" s="15"/>
       <c r="L53" s="15"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="31"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="29"/>
       <c r="O53" s="19"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -2500,8 +2500,8 @@
         <v>65</v>
       </c>
       <c r="C54" s="15"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="21"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="38"/>
       <c r="F54" s="15"/>
       <c r="G54" s="19"/>
       <c r="H54" s="15"/>
@@ -2509,8 +2509,8 @@
       <c r="J54" s="15"/>
       <c r="K54" s="15"/>
       <c r="L54" s="15"/>
-      <c r="M54" s="38"/>
-      <c r="N54" s="31"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="29"/>
       <c r="O54" s="19"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -2519,8 +2519,8 @@
         <v>66</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="21"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="38"/>
       <c r="F55" s="15"/>
       <c r="G55" s="19"/>
       <c r="H55" s="15"/>
@@ -2528,8 +2528,8 @@
       <c r="J55" s="15"/>
       <c r="K55" s="15"/>
       <c r="L55" s="15"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="31"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="29"/>
       <c r="O55" s="19"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -2538,8 +2538,8 @@
         <v>67</v>
       </c>
       <c r="C56" s="15"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="21"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="38"/>
       <c r="F56" s="15"/>
       <c r="G56" s="19"/>
       <c r="H56" s="15"/>
@@ -2547,8 +2547,8 @@
       <c r="J56" s="15"/>
       <c r="K56" s="15"/>
       <c r="L56" s="15"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="31"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="29"/>
       <c r="O56" s="19"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -2557,8 +2557,8 @@
         <v>68</v>
       </c>
       <c r="C57" s="15"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="21"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="38"/>
       <c r="F57" s="15"/>
       <c r="G57" s="19"/>
       <c r="H57" s="15"/>
@@ -2566,8 +2566,8 @@
       <c r="J57" s="15"/>
       <c r="K57" s="15"/>
       <c r="L57" s="15"/>
-      <c r="M57" s="38"/>
-      <c r="N57" s="31"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="29"/>
       <c r="O57" s="19"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
@@ -2576,8 +2576,8 @@
         <v>69</v>
       </c>
       <c r="C58" s="15"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="21"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="38"/>
       <c r="F58" s="15"/>
       <c r="G58" s="19"/>
       <c r="H58" s="15"/>
@@ -2585,8 +2585,8 @@
       <c r="J58" s="15"/>
       <c r="K58" s="15"/>
       <c r="L58" s="15"/>
-      <c r="M58" s="38"/>
-      <c r="N58" s="31"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="29"/>
       <c r="O58" s="19"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -2595,8 +2595,8 @@
         <v>70</v>
       </c>
       <c r="C59" s="15"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="21"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="38"/>
       <c r="F59" s="15"/>
       <c r="G59" s="19"/>
       <c r="H59" s="15"/>
@@ -2604,12 +2604,18 @@
       <c r="J59" s="15"/>
       <c r="K59" s="15"/>
       <c r="L59" s="15"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="31"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="29"/>
       <c r="O59" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="D58:E58"/>
@@ -2618,12 +2624,6 @@
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhishekdas/Desktop/abhishek/google-cloud/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA9EFF1-CF52-114E-A198-D62F1F67CE4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC34012B-67AD-6044-B97D-353E61359B9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" xr2:uid="{5A94D530-864E-FD4B-B887-8670102A2B2A}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="188">
   <si>
     <t>Type Based on location</t>
   </si>
@@ -545,6 +546,63 @@
   </si>
   <si>
     <t>horizontal scaling</t>
+  </si>
+  <si>
+    <t>Outside VPC</t>
+  </si>
+  <si>
+    <t>VPC - accessed using private or public IP.</t>
+  </si>
+  <si>
+    <t>Cloud BigQuery</t>
+  </si>
+  <si>
+    <t>serverless</t>
+  </si>
+  <si>
+    <t>Cost effective service</t>
+  </si>
+  <si>
+    <t>data warehouse supports multi-cloud</t>
+  </si>
+  <si>
+    <t>10 Gb storage &amp; 1 tb queries/month free</t>
+  </si>
+  <si>
+    <t>TCO (total cost of ownership) is 26% to 34% slower</t>
+  </si>
+  <si>
+    <t>Natural language processing</t>
+  </si>
+  <si>
+    <t>Real time analytics</t>
+  </si>
+  <si>
+    <t>Highly available</t>
+  </si>
+  <si>
+    <t>AI, BI, ML</t>
+  </si>
+  <si>
+    <t>BigQuery provides rich monitoring, logging, and alerting through Cloud Audit Logs and it can serve as a repository for logs from any application or service using Cloud Logging.</t>
+  </si>
+  <si>
+    <t>Programmatic interaction with BigQuery</t>
+  </si>
+  <si>
+    <t>Geo Expansion - ability to process geo spatial data</t>
+  </si>
+  <si>
+    <t>Big query also comes with storage option like cloud storage (near line) reduce cost till 50%(0.01$)/ GB.</t>
+  </si>
+  <si>
+    <t>Max byte per seconds per project: 1gb
+Max row per seconds per project: 5L (US and EU), 1L for others
+MBPS: 100MB
+HTTP request size limit: 10MB</t>
+  </si>
+  <si>
+    <t>highly scalable till exabytes storage &amp; query peta bytes of data</t>
   </si>
 </sst>
 </file>
@@ -803,7 +861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -856,6 +914,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1171,13 +1232,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC294BAE-C08F-CD44-B003-2FC465D9AAB2}">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I44" sqref="I44"/>
+      <selection pane="bottomRight" activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1193,11 +1254,11 @@
     <col min="10" max="10" width="64.5" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="54.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="54.83203125" customWidth="1"/>
-    <col min="14" max="14" width="54.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="1.5" customWidth="1"/>
+    <col min="14" max="15" width="54.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1236,9 +1297,12 @@
       <c r="N1" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="O1" s="19"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O1" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="P1" s="19"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1279,9 +1343,12 @@
       <c r="N2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="19"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="19"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>43</v>
@@ -1300,9 +1367,10 @@
       <c r="L3" s="2"/>
       <c r="M3" s="30"/>
       <c r="N3" s="23"/>
-      <c r="O3" s="19"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O3" s="23"/>
+      <c r="P3" s="19"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>57</v>
@@ -1319,9 +1387,10 @@
       <c r="L4" s="2"/>
       <c r="M4" s="30"/>
       <c r="N4" s="23"/>
-      <c r="O4" s="19"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O4" s="23"/>
+      <c r="P4" s="19"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="2" t="s">
         <v>58</v>
@@ -1338,9 +1407,10 @@
       <c r="L5" s="2"/>
       <c r="M5" s="30"/>
       <c r="N5" s="23"/>
-      <c r="O5" s="19"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O5" s="23"/>
+      <c r="P5" s="19"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="2" t="s">
         <v>41</v>
@@ -1357,9 +1427,10 @@
       <c r="L6" s="2"/>
       <c r="M6" s="30"/>
       <c r="N6" s="23"/>
-      <c r="O6" s="19"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O6" s="23"/>
+      <c r="P6" s="19"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>84</v>
       </c>
@@ -1396,9 +1467,10 @@
       <c r="N7" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="O7" s="19"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O7" s="24"/>
+      <c r="P7" s="19"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18" t="s">
@@ -1417,9 +1489,10 @@
       <c r="L8" s="18"/>
       <c r="M8" s="31"/>
       <c r="N8" s="24"/>
-      <c r="O8" s="19"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O8" s="24"/>
+      <c r="P8" s="19"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -1436,9 +1509,10 @@
       <c r="L9" s="18"/>
       <c r="M9" s="31"/>
       <c r="N9" s="24"/>
-      <c r="O9" s="19"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O9" s="24"/>
+      <c r="P9" s="19"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
@@ -1477,9 +1551,12 @@
       <c r="N10" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="O10" s="19"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O10" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="P10" s="19"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>46</v>
@@ -1516,9 +1593,12 @@
       <c r="N11" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="O11" s="19"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O11" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="P11" s="19"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
@@ -1551,9 +1631,10 @@
       <c r="N12" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="O12" s="19"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O12" s="25"/>
+      <c r="P12" s="19"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
@@ -1574,9 +1655,10 @@
       <c r="L13" s="3"/>
       <c r="M13" s="32"/>
       <c r="N13" s="25"/>
-      <c r="O13" s="19"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O13" s="25"/>
+      <c r="P13" s="19"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1595,9 +1677,10 @@
       <c r="L14" s="3"/>
       <c r="M14" s="32"/>
       <c r="N14" s="25"/>
-      <c r="O14" s="19"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O14" s="25"/>
+      <c r="P14" s="19"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1612,9 +1695,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="32"/>
       <c r="N15" s="25"/>
-      <c r="O15" s="19"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O15" s="25"/>
+      <c r="P15" s="19"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1629,9 +1713,10 @@
       <c r="L16" s="3"/>
       <c r="M16" s="32"/>
       <c r="N16" s="25"/>
-      <c r="O16" s="19"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O16" s="25"/>
+      <c r="P16" s="19"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1646,9 +1731,10 @@
       <c r="L17" s="3"/>
       <c r="M17" s="32"/>
       <c r="N17" s="25"/>
-      <c r="O17" s="19"/>
-    </row>
-    <row r="18" spans="1:15" ht="40" x14ac:dyDescent="0.25">
+      <c r="O17" s="25"/>
+      <c r="P17" s="19"/>
+    </row>
+    <row r="18" spans="1:16" ht="69" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>3</v>
       </c>
@@ -1685,9 +1771,12 @@
       <c r="N18" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="O18" s="19"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O18" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="P18" s="19"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="4" t="s">
         <v>80</v>
@@ -1710,9 +1799,10 @@
       <c r="L19" s="4"/>
       <c r="M19" s="33"/>
       <c r="N19" s="26"/>
-      <c r="O19" s="19"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O19" s="26"/>
+      <c r="P19" s="19"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1733,9 +1823,10 @@
       <c r="L20" s="4"/>
       <c r="M20" s="33"/>
       <c r="N20" s="26"/>
-      <c r="O20" s="19"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O20" s="26"/>
+      <c r="P20" s="19"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1756,9 +1847,10 @@
       <c r="L21" s="4"/>
       <c r="M21" s="33"/>
       <c r="N21" s="26"/>
-      <c r="O21" s="19"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O21" s="26"/>
+      <c r="P21" s="19"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1777,9 +1869,10 @@
       <c r="L22" s="4"/>
       <c r="M22" s="33"/>
       <c r="N22" s="26"/>
-      <c r="O22" s="19"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O22" s="26"/>
+      <c r="P22" s="19"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1796,9 +1889,10 @@
       <c r="L23" s="4"/>
       <c r="M23" s="33"/>
       <c r="N23" s="26"/>
-      <c r="O23" s="19"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O23" s="26"/>
+      <c r="P23" s="19"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1815,9 +1909,10 @@
       <c r="L24" s="4"/>
       <c r="M24" s="33"/>
       <c r="N24" s="26"/>
-      <c r="O24" s="19"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O24" s="26"/>
+      <c r="P24" s="19"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1834,9 +1929,10 @@
       <c r="L25" s="4"/>
       <c r="M25" s="33"/>
       <c r="N25" s="26"/>
-      <c r="O25" s="19"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O25" s="26"/>
+      <c r="P25" s="19"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1853,9 +1949,10 @@
       <c r="L26" s="4"/>
       <c r="M26" s="33"/>
       <c r="N26" s="26"/>
-      <c r="O26" s="19"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O26" s="26"/>
+      <c r="P26" s="19"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1872,9 +1969,10 @@
       <c r="L27" s="4"/>
       <c r="M27" s="33"/>
       <c r="N27" s="26"/>
-      <c r="O27" s="19"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O27" s="26"/>
+      <c r="P27" s="19"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1889,9 +1987,10 @@
       <c r="L28" s="4"/>
       <c r="M28" s="33"/>
       <c r="N28" s="26"/>
-      <c r="O28" s="19"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O28" s="26"/>
+      <c r="P28" s="19"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1906,9 +2005,10 @@
       <c r="L29" s="4"/>
       <c r="M29" s="33"/>
       <c r="N29" s="26"/>
-      <c r="O29" s="19"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O29" s="26"/>
+      <c r="P29" s="19"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1923,9 +2023,10 @@
       <c r="L30" s="4"/>
       <c r="M30" s="33"/>
       <c r="N30" s="26"/>
-      <c r="O30" s="19"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O30" s="26"/>
+      <c r="P30" s="19"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>4</v>
       </c>
@@ -1966,9 +2067,12 @@
       <c r="N31" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="O31" s="19"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O31" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="P31" s="19"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="5" t="s">
         <v>48</v>
@@ -1997,9 +2101,12 @@
         <v>148</v>
       </c>
       <c r="N32" s="27"/>
-      <c r="O32" s="19"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O32" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="P32" s="19"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="5" t="s">
         <v>32</v>
@@ -2026,9 +2133,12 @@
       <c r="L33" s="5"/>
       <c r="M33" s="34"/>
       <c r="N33" s="27"/>
-      <c r="O33" s="19"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O33" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="P33" s="19"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="5" t="s">
         <v>50</v>
@@ -2055,9 +2165,12 @@
       <c r="L34" s="5"/>
       <c r="M34" s="34"/>
       <c r="N34" s="27"/>
-      <c r="O34" s="19"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O34" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="P34" s="19"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="5" t="s">
         <v>51</v>
@@ -2082,9 +2195,12 @@
       <c r="L35" s="5"/>
       <c r="M35" s="34"/>
       <c r="N35" s="27"/>
-      <c r="O35" s="19"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O35" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="P35" s="19"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="5" t="s">
         <v>52</v>
@@ -2107,9 +2223,12 @@
       <c r="L36" s="5"/>
       <c r="M36" s="34"/>
       <c r="N36" s="27"/>
-      <c r="O36" s="19"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O36" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="P36" s="19"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="5" t="s">
         <v>79</v>
@@ -2130,9 +2249,12 @@
       <c r="L37" s="5"/>
       <c r="M37" s="34"/>
       <c r="N37" s="27"/>
-      <c r="O37" s="19"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O37" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="P37" s="19"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="5" t="s">
         <v>78</v>
@@ -2153,9 +2275,12 @@
       <c r="L38" s="5"/>
       <c r="M38" s="34"/>
       <c r="N38" s="27"/>
-      <c r="O38" s="19"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O38" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P38" s="19"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2163,16 +2288,23 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
+      <c r="H39" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="34"/>
       <c r="N39" s="27"/>
-      <c r="O39" s="19"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O39" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P39" s="19"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2187,9 +2319,12 @@
       <c r="L40" s="5"/>
       <c r="M40" s="34"/>
       <c r="N40" s="27"/>
-      <c r="O40" s="19"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O40" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P40" s="19"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2204,9 +2339,12 @@
       <c r="L41" s="5"/>
       <c r="M41" s="34"/>
       <c r="N41" s="27"/>
-      <c r="O41" s="19"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O41" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="P41" s="19"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>33</v>
       </c>
@@ -2227,9 +2365,12 @@
       <c r="L42" s="6"/>
       <c r="M42" s="35"/>
       <c r="N42" s="28"/>
-      <c r="O42" s="19"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O42" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="P42" s="19"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="6" t="s">
         <v>35</v>
@@ -2248,9 +2389,10 @@
       <c r="L43" s="6"/>
       <c r="M43" s="35"/>
       <c r="N43" s="28"/>
-      <c r="O43" s="19"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O43" s="28"/>
+      <c r="P43" s="19"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>53</v>
       </c>
@@ -2277,9 +2419,10 @@
       <c r="L44" s="15"/>
       <c r="M44" s="36"/>
       <c r="N44" s="29"/>
-      <c r="O44" s="19"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O44" s="29"/>
+      <c r="P44" s="19"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="15" t="s">
         <v>55</v>
@@ -2304,9 +2447,10 @@
       <c r="L45" s="15"/>
       <c r="M45" s="36"/>
       <c r="N45" s="29"/>
-      <c r="O45" s="19"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O45" s="29"/>
+      <c r="P45" s="19"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="15" t="s">
         <v>56</v>
@@ -2331,9 +2475,10 @@
       <c r="L46" s="15"/>
       <c r="M46" s="36"/>
       <c r="N46" s="29"/>
-      <c r="O46" s="19"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O46" s="29"/>
+      <c r="P46" s="19"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="15" t="s">
         <v>71</v>
@@ -2356,9 +2501,10 @@
       <c r="L47" s="15"/>
       <c r="M47" s="36"/>
       <c r="N47" s="29"/>
-      <c r="O47" s="19"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O47" s="29"/>
+      <c r="P47" s="19"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="16" t="s">
         <v>59</v>
@@ -2381,9 +2527,10 @@
       <c r="L48" s="15"/>
       <c r="M48" s="36"/>
       <c r="N48" s="29"/>
-      <c r="O48" s="19"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O48" s="29"/>
+      <c r="P48" s="19"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="15" t="s">
         <v>60</v>
@@ -2406,9 +2553,10 @@
       <c r="L49" s="15"/>
       <c r="M49" s="36"/>
       <c r="N49" s="29"/>
-      <c r="O49" s="19"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O49" s="29"/>
+      <c r="P49" s="19"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="15" t="s">
         <v>61</v>
@@ -2429,9 +2577,10 @@
       <c r="L50" s="15"/>
       <c r="M50" s="36"/>
       <c r="N50" s="29"/>
-      <c r="O50" s="19"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O50" s="29"/>
+      <c r="P50" s="19"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="16" t="s">
         <v>62</v>
@@ -2452,9 +2601,10 @@
       <c r="L51" s="15"/>
       <c r="M51" s="36"/>
       <c r="N51" s="29"/>
-      <c r="O51" s="19"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O51" s="29"/>
+      <c r="P51" s="19"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="15" t="s">
         <v>63</v>
@@ -2473,9 +2623,10 @@
       <c r="L52" s="15"/>
       <c r="M52" s="36"/>
       <c r="N52" s="29"/>
-      <c r="O52" s="19"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O52" s="29"/>
+      <c r="P52" s="19"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="16" t="s">
         <v>64</v>
@@ -2492,9 +2643,10 @@
       <c r="L53" s="15"/>
       <c r="M53" s="36"/>
       <c r="N53" s="29"/>
-      <c r="O53" s="19"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O53" s="29"/>
+      <c r="P53" s="19"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="15" t="s">
         <v>65</v>
@@ -2511,9 +2663,10 @@
       <c r="L54" s="15"/>
       <c r="M54" s="36"/>
       <c r="N54" s="29"/>
-      <c r="O54" s="19"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O54" s="29"/>
+      <c r="P54" s="19"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="15" t="s">
         <v>66</v>
@@ -2530,9 +2683,10 @@
       <c r="L55" s="15"/>
       <c r="M55" s="36"/>
       <c r="N55" s="29"/>
-      <c r="O55" s="19"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O55" s="29"/>
+      <c r="P55" s="19"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="15" t="s">
         <v>67</v>
@@ -2549,9 +2703,10 @@
       <c r="L56" s="15"/>
       <c r="M56" s="36"/>
       <c r="N56" s="29"/>
-      <c r="O56" s="19"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O56" s="29"/>
+      <c r="P56" s="19"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="15" t="s">
         <v>68</v>
@@ -2568,9 +2723,10 @@
       <c r="L57" s="15"/>
       <c r="M57" s="36"/>
       <c r="N57" s="29"/>
-      <c r="O57" s="19"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O57" s="29"/>
+      <c r="P57" s="19"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="15" t="s">
         <v>69</v>
@@ -2587,9 +2743,10 @@
       <c r="L58" s="15"/>
       <c r="M58" s="36"/>
       <c r="N58" s="29"/>
-      <c r="O58" s="19"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O58" s="29"/>
+      <c r="P58" s="19"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="15" t="s">
         <v>70</v>
@@ -2606,16 +2763,14 @@
       <c r="L59" s="15"/>
       <c r="M59" s="36"/>
       <c r="N59" s="29"/>
-      <c r="O59" s="19"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="19"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O60" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="D58:E58"/>
@@ -2624,6 +2779,12 @@
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
